--- a/medicine/Enfance/La_Petite_Chose_noire/La_Petite_Chose_noire.xlsx
+++ b/medicine/Enfance/La_Petite_Chose_noire/La_Petite_Chose_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Petite Chose noire (くろいの, Kuroino?) est un livre pour enfants écrit par Kiyo Tanaka (田中清代 Tanaka Kiyo), publié en 2018 par Kaiseisha (ja)[1]. Une traduction de Kuroino a été publiée en français, La Petite Chose noire, écrite par Alice Hureau[2] et publiée par Le Cosmographe[3].
-Dans le livre, une petite fille voit une créature et part à l'aventure. À la fin, la fille rencontre son père[4].
-David Boyd a écrit la traduction en anglais, The Little One, a été publié en 2021 par Enchanted Lion Books[4].
+La Petite Chose noire (くろいの, Kuroino?) est un livre pour enfants écrit par Kiyo Tanaka (田中清代 Tanaka Kiyo), publié en 2018 par Kaiseisha (ja). Une traduction de Kuroino a été publiée en français, La Petite Chose noire, écrite par Alice Hureau et publiée par Le Cosmographe.
+Dans le livre, une petite fille voit une créature et part à l'aventure. À la fin, la fille rencontre son père.
+David Boyd a écrit la traduction en anglais, The Little One, a été publié en 2021 par Enchanted Lion Books.
 </t>
         </is>
       </c>
